--- a/Output_Backtest/Equal_Risk_Contribution_drawdowns.xlsx
+++ b/Output_Backtest/Equal_Risk_Contribution_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.01193562398719905</v>
+        <v>-0.01193562776589219</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.03092671507822253</v>
+        <v>-0.03092681858210011</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.04509201086330772</v>
+        <v>-0.04509207609852162</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.0383422362230309</v>
+        <v>-0.0383423647377048</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.001441658048673355</v>
+        <v>-0.001441573748941716</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.01723748141899711</v>
+        <v>-0.01723754122315371</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.03354478740408865</v>
+        <v>-0.03354481458667043</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.02515790302104556</v>
+        <v>-0.02515786488231748</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.01233331477314789</v>
+        <v>-0.01233330245890538</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.02301609231965824</v>
+        <v>-0.0230161354349794</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.01653905760599225</v>
+        <v>-0.01653895797200381</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.02007054087440082</v>
+        <v>-0.02007031337611762</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.01149553355737106</v>
+        <v>-0.01149550315262067</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.01272342504006241</v>
+        <v>-0.01272334372782859</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>-0.005206034935315996</v>
+        <v>-0.005205915610527645</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.005430998928558857</v>
+        <v>-0.00543095041071555</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.03715615531310837</v>
+        <v>-0.03715614590076314</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.03177792618186477</v>
+        <v>-0.03177792346040445</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.04824494180265883</v>
+        <v>-0.04824504012155805</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.003219691352466878</v>
+        <v>-0.00321970323296811</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.0171883826993286</v>
+        <v>-0.01718834539205115</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.01207001442153146</v>
+        <v>-0.01207009208953884</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.04788421219454471</v>
+        <v>-0.04788447556696422</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>-0.01570886367363709</v>
+        <v>-0.01570892613697539</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.009994336932983664</v>
+        <v>-0.009994363944906484</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.02235113597762435</v>
+        <v>-0.02235119792160109</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.005735949327244694</v>
+        <v>-0.005736025577449669</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.01430721198296215</v>
+        <v>-0.01430738634285663</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.02224724038894318</v>
+        <v>-0.02224750685664021</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.004240463506664268</v>
+        <v>-0.004240508024566754</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.02033777121895456</v>
+        <v>-0.02033782847885768</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.009819586191106507</v>
+        <v>-0.009819578689100132</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01589259741005135</v>
+        <v>-0.01589267332641141</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.005324318031077211</v>
+        <v>-0.00532444452745835</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.03100324396286932</v>
+        <v>-0.03100334199879599</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.04114962531972613</v>
+        <v>-0.04114969534328777</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.05759479446447133</v>
+        <v>-0.05759482736718989</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.1034284052374397</v>
+        <v>-0.1034284322313548</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.09861964492512972</v>
+        <v>-0.09861969993903349</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1309657815868281</v>
+        <v>-0.1309657694559049</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.1050070903437089</v>
+        <v>-0.1050071282898349</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1357412048388735</v>
+        <v>-0.1357411911585908</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.190354161104087</v>
+        <v>-0.1903541148612724</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1856198415054833</v>
+        <v>-0.1856197669469055</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1406094468108212</v>
+        <v>-0.1406093499268423</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1566282010429811</v>
+        <v>-0.1566280966113918</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1094213658486936</v>
+        <v>-0.1094213233749097</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1420014279872563</v>
+        <v>-0.1420013481359431</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.1193521710695387</v>
+        <v>-0.1193521328304683</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1153377565021669</v>
+        <v>-0.1153376974005851</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1324508050806333</v>
+        <v>-0.132450745979887</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1092516273551377</v>
+        <v>-0.1092515203364354</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.08626658858824916</v>
+        <v>-0.08626648730448708</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1051982705823011</v>
+        <v>-0.1051981685769777</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.132547011136691</v>
+        <v>-0.1325469623150877</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1506069799900289</v>
+        <v>-0.1506069159796315</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1037796599401712</v>
+        <v>-0.103779559385235</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.06870386100590249</v>
+        <v>-0.06870370709590946</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.07719216467943239</v>
+        <v>-0.07719200981596587</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.0653029556965344</v>
+        <v>-0.06530285833258051</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.04108608362609999</v>
+        <v>-0.04108598693743793</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.06188442350764998</v>
+        <v>-0.06188429725041013</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.04238564525472381</v>
+        <v>-0.04238551481578511</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.03402288311688043</v>
+        <v>-0.03402276967474505</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.01029761586897096</v>
+        <v>-0.01029748759437502</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.01746076370884649</v>
+        <v>-0.01746075478643967</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.02710915206644306</v>
+        <v>-0.02710914019881225</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Equal_Risk_Contribution_drawdowns.xlsx
+++ b/Output_Backtest/Equal_Risk_Contribution_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.01193562776589219</v>
+        <v>-0.01193568084475627</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.03092681858210011</v>
+        <v>-0.03092671442988504</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.04509207609852162</v>
+        <v>-0.04509230778479512</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.0383423647377048</v>
+        <v>-0.03834264728141978</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.001441573748941716</v>
+        <v>-0.001441697524942387</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.01723754122315371</v>
+        <v>-0.01723765384127654</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.03354481458667043</v>
+        <v>-0.03354473336374721</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.02515786488231748</v>
+        <v>-0.02515791507551208</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.01233330245890538</v>
+        <v>-0.01233319055426252</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.0230161354349794</v>
+        <v>-0.02301590729399342</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.01653895797200381</v>
+        <v>-0.01653893692474964</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.02007031337611762</v>
+        <v>-0.02007030438950147</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.01149550315262067</v>
+        <v>-0.01149534948867577</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.01272334372782859</v>
+        <v>-0.01272324103186576</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>-0.005205915610527645</v>
+        <v>-0.00520591445559238</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.00543095041071555</v>
+        <v>-0.005431025288229629</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.03715614590076314</v>
+        <v>-0.03715620790879693</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.03177792346040445</v>
+        <v>-0.03177788760852559</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.04824504012155805</v>
+        <v>-0.04824484397771133</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.00321970323296811</v>
+        <v>-0.00321956533937539</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.01718834539205115</v>
+        <v>-0.01718825325220057</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.01207009208953884</v>
+        <v>-0.01207003901293143</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.04788447556696422</v>
+        <v>-0.04788433996922968</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>-0.01570892613697539</v>
+        <v>-0.01570897397925323</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.009994363944906484</v>
+        <v>-0.009994374026269721</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.02235119792160109</v>
+        <v>-0.02235127908500933</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.005736025577449669</v>
+        <v>-0.005735960450037624</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.01430738634285663</v>
+        <v>-0.0143073233216336</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.02224750685664021</v>
+        <v>-0.0222473902070955</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.004240508024566754</v>
+        <v>-0.004240492979878074</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.02033782847885768</v>
+        <v>-0.02033773611780848</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.009819578689100132</v>
+        <v>-0.009819618025280519</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01589267332641141</v>
+        <v>-0.01589265549786554</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.00532444452745835</v>
+        <v>-0.005324333871813474</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.03100334199879599</v>
+        <v>-0.03100323889961078</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.04114969534328777</v>
+        <v>-0.0411496613578684</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.05759482736718989</v>
+        <v>-0.05759479429328325</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.1034284322313548</v>
+        <v>-0.1034284559885517</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.09861969993903349</v>
+        <v>-0.09861975815439124</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1309657694559049</v>
+        <v>-0.1309658579315226</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.1050071282898349</v>
+        <v>-0.105007119098072</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1357411911585908</v>
+        <v>-0.1357412685040269</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1903541148612724</v>
+        <v>-0.1903542041863109</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1856197669469055</v>
+        <v>-0.1856198569168293</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1406093499268423</v>
+        <v>-0.140609464725174</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1566280966113918</v>
+        <v>-0.1566281352027925</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1094213233749097</v>
+        <v>-0.1094213730541721</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1420013481359431</v>
+        <v>-0.1420014766007303</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.1193521328304683</v>
+        <v>-0.1193521950399732</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1153376974005851</v>
+        <v>-0.115337763851063</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.132450745979887</v>
+        <v>-0.1324508443985729</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1092515203364354</v>
+        <v>-0.1092516044359981</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.08626648730448708</v>
+        <v>-0.08626657734174611</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1051981685769777</v>
+        <v>-0.1051982752472099</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1325469623150877</v>
+        <v>-0.1325470053680949</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1506069159796315</v>
+        <v>-0.150606986651128</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.103779559385235</v>
+        <v>-0.1037796584982612</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.06870370709590946</v>
+        <v>-0.06870385995317656</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.07719200981596587</v>
+        <v>-0.07719216052364079</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.06530285833258051</v>
+        <v>-0.06530299066283005</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.04108598693743793</v>
+        <v>-0.04108611609503673</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.06188429725041013</v>
+        <v>-0.06188441354651799</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.04238551481578511</v>
+        <v>-0.04238566564071411</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.03402276967474505</v>
+        <v>-0.03402289676997806</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.01029748759437502</v>
+        <v>-0.01029762671467056</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.01746075478643967</v>
+        <v>-0.0174618014838958</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.02710914019881225</v>
+        <v>-0.02098897423738692</v>
       </c>
     </row>
   </sheetData>
